--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
+    <sheet name="GoogleSignupData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,22 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>SearchString</t>
   </si>
   <si>
     <t>Sri</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>CreatePassword</t>
+  </si>
+  <si>
+    <t>ConfirmPassword</t>
+  </si>
+  <si>
+    <t>BirthMonth</t>
+  </si>
+  <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>Birthyear</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Moblienumber</t>
+  </si>
+  <si>
+    <t>currentemail</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>selenium.trainingsridhar@gmail.com</t>
+  </si>
+  <si>
+    <t>123@Pass</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>****@gmail.com</t>
+  </si>
+  <si>
+    <t>India</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +126,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -344,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -364,4 +436,100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>9876543212</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="D2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2430" windowWidth="9640" windowHeight="1890" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
     <sheet name="GoogleSignupData" sheetId="2" r:id="rId2"/>
+    <sheet name="Facebbook" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>SearchString</t>
   </si>
@@ -86,12 +88,39 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>emailorph</t>
+  </si>
+  <si>
+    <t>newpass</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>aabb</t>
+  </si>
+  <si>
+    <t>a123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,7 +435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,9 +447,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -442,11 +471,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -532,4 +561,71 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>2010</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2430" windowWidth="9640" windowHeight="1890" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9640" windowHeight="2640" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
     <sheet name="GoogleSignupData" sheetId="2" r:id="rId2"/>
-    <sheet name="Facebbook" sheetId="3" r:id="rId3"/>
+    <sheet name="Facebook" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I5"/>
+  <oleSize ref="A1:I7"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>SearchString</t>
   </si>
@@ -115,12 +115,27 @@
   </si>
   <si>
     <t>a123</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>a.b@gmail.com</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>10'</t>
+  </si>
+  <si>
+    <t>2010'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,9 +174,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -435,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,7 +488,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,7 +531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -568,7 +584,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -606,26 +622,32 @@
       <c r="A2" t="s">
         <v>29</v>
       </c>
-      <c r="C2">
-        <v>1234567890</v>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D2" t="s">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>2010</v>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/TestData.xlsx
+++ b/Data/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9640" windowHeight="2640" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8260" windowHeight="1690" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Search" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Facebook" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I7"/>
+  <oleSize ref="A1:H4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
